--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136518.9001984627</v>
+        <v>131991.5726993056</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="C4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="D4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="E4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="F4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="G4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="H4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="I4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="J4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="K4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="L4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="M4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="N4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="O4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="P4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11380.58351479901</v>
+        <v>-12126.11889371072</v>
       </c>
       <c r="C6" t="n">
-        <v>-11380.58351479901</v>
+        <v>-12126.11889371072</v>
       </c>
       <c r="D6" t="n">
-        <v>-11380.58351479901</v>
+        <v>-12126.11889371072</v>
       </c>
       <c r="E6" t="n">
-        <v>-85569.58490464045</v>
+        <v>-86011.39299459047</v>
       </c>
       <c r="F6" t="n">
-        <v>47530.4150953596</v>
+        <v>47088.60700540952</v>
       </c>
       <c r="G6" t="n">
-        <v>47530.4150953596</v>
+        <v>47088.60700540952</v>
       </c>
       <c r="H6" t="n">
-        <v>47530.4150953596</v>
+        <v>47088.60700540952</v>
       </c>
       <c r="I6" t="n">
-        <v>47530.4150953596</v>
+        <v>47088.60700540952</v>
       </c>
       <c r="J6" t="n">
-        <v>47530.4150953596</v>
+        <v>47088.60700540952</v>
       </c>
       <c r="K6" t="n">
-        <v>47530.4150953596</v>
+        <v>47088.60700540952</v>
       </c>
       <c r="L6" t="n">
-        <v>47530.4150953596</v>
+        <v>47088.60700540952</v>
       </c>
       <c r="M6" t="n">
-        <v>47530.4150953596</v>
+        <v>47088.60700540952</v>
       </c>
       <c r="N6" t="n">
-        <v>47530.4150953596</v>
+        <v>47088.60700540952</v>
       </c>
       <c r="O6" t="n">
-        <v>47530.4150953596</v>
+        <v>47088.60700540952</v>
       </c>
       <c r="P6" t="n">
-        <v>47530.4150953596</v>
+        <v>47088.60700540952</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131991.5726993056</v>
+        <v>145717.9308367238</v>
       </c>
     </row>
     <row r="7">
@@ -26317,7 +26319,7 @@
         <v>80630.55414858479</v>
       </c>
       <c r="D2" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="E2" t="n">
         <v>85740.41111239771</v>
@@ -26335,7 +26337,7 @@
         <v>85740.41111239771</v>
       </c>
       <c r="J2" t="n">
-        <v>85740.41111239771</v>
+        <v>85740.41111239772</v>
       </c>
       <c r="K2" t="n">
         <v>85740.41111239771</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26525,43 +26527,43 @@
         <v>-12126.11889371072</v>
       </c>
       <c r="D6" t="n">
-        <v>-12126.11889371072</v>
+        <v>-12126.11889371074</v>
       </c>
       <c r="E6" t="n">
-        <v>-86011.39299459047</v>
+        <v>-86011.39299459053</v>
       </c>
       <c r="F6" t="n">
-        <v>47088.60700540952</v>
+        <v>47088.60700540953</v>
       </c>
       <c r="G6" t="n">
-        <v>47088.60700540952</v>
+        <v>47088.60700540953</v>
       </c>
       <c r="H6" t="n">
-        <v>47088.60700540952</v>
+        <v>47088.60700540953</v>
       </c>
       <c r="I6" t="n">
-        <v>47088.60700540952</v>
+        <v>47088.60700540953</v>
       </c>
       <c r="J6" t="n">
-        <v>47088.60700540952</v>
+        <v>47088.60700540954</v>
       </c>
       <c r="K6" t="n">
-        <v>47088.60700540952</v>
+        <v>47088.60700540953</v>
       </c>
       <c r="L6" t="n">
-        <v>47088.60700540952</v>
+        <v>47088.60700540953</v>
       </c>
       <c r="M6" t="n">
-        <v>47088.60700540952</v>
+        <v>47088.60700540953</v>
       </c>
       <c r="N6" t="n">
-        <v>47088.60700540952</v>
+        <v>47088.60700540953</v>
       </c>
       <c r="O6" t="n">
-        <v>47088.60700540952</v>
+        <v>47088.60700540953</v>
       </c>
       <c r="P6" t="n">
-        <v>47088.60700540952</v>
+        <v>47088.60700540953</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145717.9308367238</v>
+        <v>20608.03203924714</v>
       </c>
     </row>
     <row r="7">
@@ -26316,10 +26316,10 @@
         <v>80630.55414858479</v>
       </c>
       <c r="C2" t="n">
+        <v>80630.55414858478</v>
+      </c>
+      <c r="D2" t="n">
         <v>80630.55414858479</v>
-      </c>
-      <c r="D2" t="n">
-        <v>80630.55414858478</v>
       </c>
       <c r="E2" t="n">
         <v>85740.41111239771</v>
@@ -26337,7 +26337,7 @@
         <v>85740.41111239771</v>
       </c>
       <c r="J2" t="n">
-        <v>85740.41111239772</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="K2" t="n">
         <v>85740.41111239771</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12126.11889371072</v>
+        <v>-27276.79286374549</v>
       </c>
       <c r="C6" t="n">
-        <v>-12126.11889371072</v>
+        <v>-27276.7928637455</v>
       </c>
       <c r="D6" t="n">
-        <v>-12126.11889371074</v>
+        <v>-27276.79286374549</v>
       </c>
       <c r="E6" t="n">
-        <v>-86011.39299459053</v>
+        <v>-100821.4098337044</v>
       </c>
       <c r="F6" t="n">
-        <v>47088.60700540953</v>
+        <v>32278.59016629562</v>
       </c>
       <c r="G6" t="n">
-        <v>47088.60700540953</v>
+        <v>32278.59016629562</v>
       </c>
       <c r="H6" t="n">
-        <v>47088.60700540953</v>
+        <v>32278.59016629562</v>
       </c>
       <c r="I6" t="n">
-        <v>47088.60700540953</v>
+        <v>32278.59016629562</v>
       </c>
       <c r="J6" t="n">
-        <v>47088.60700540954</v>
+        <v>32278.59016629562</v>
       </c>
       <c r="K6" t="n">
-        <v>47088.60700540953</v>
+        <v>32278.59016629562</v>
       </c>
       <c r="L6" t="n">
-        <v>47088.60700540953</v>
+        <v>32278.59016629562</v>
       </c>
       <c r="M6" t="n">
-        <v>47088.60700540953</v>
+        <v>32278.59016629562</v>
       </c>
       <c r="N6" t="n">
-        <v>47088.60700540953</v>
+        <v>32278.59016629562</v>
       </c>
       <c r="O6" t="n">
-        <v>47088.60700540953</v>
+        <v>32278.59016629562</v>
       </c>
       <c r="P6" t="n">
-        <v>47088.60700540953</v>
+        <v>32278.59016629562</v>
       </c>
     </row>
   </sheetData>
